--- a/DY-CN翻译进度.xlsx
+++ b/DY-CN翻译进度.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Flux.Constantly">0</definedName>
+    <definedName name="Flux.DataHasHeaders">1</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t xml:space="preserve">翻译目录表 </t>
   </si>
@@ -284,6 +288,10 @@
   </si>
   <si>
     <t>zhangzbxyz</t>
+  </si>
+  <si>
+    <t>ChengXinDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -362,13 +370,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -380,12 +388,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -427,7 +438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,7 +473,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,30 +702,30 @@
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -860,32 +871,47 @@
       <c r="A33" t="s">
         <v>32</v>
       </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>33</v>
       </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>35</v>
       </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>36</v>
       </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>37</v>
       </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -893,7 +919,7 @@
       <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -901,7 +927,7 @@
       <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -909,7 +935,7 @@
       <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -917,7 +943,7 @@
       <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="3" t="s">
         <v>69</v>
       </c>
     </row>
